--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_404__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_404__Reeval_LHS_Modell_1.3.xlsx
@@ -5972,13 +5972,13 @@
                   <c:v>68.0989990234375</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64.02603912353516</c:v>
+                  <c:v>64.02604675292969</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>62.13449096679688</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.69252014160156</c:v>
+                  <c:v>59.69251251220703</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>71.16709899902344</c:v>
@@ -5987,7 +5987,7 @@
                   <c:v>69.71636199951172</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>67.50532531738281</c:v>
+                  <c:v>67.50531768798828</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>69.6033935546875</c:v>
@@ -5999,7 +5999,7 @@
                   <c:v>70.87116241455078</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55.01438903808594</c:v>
+                  <c:v>55.01438140869141</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>63.29547119140625</c:v>
@@ -6020,10 +6020,10 @@
                   <c:v>71.66355133056641</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>64.33221435546875</c:v>
+                  <c:v>64.33220672607422</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>72.97991180419922</c:v>
+                  <c:v>72.97991943359375</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>63.17019653320312</c:v>
@@ -6047,7 +6047,7 @@
                   <c:v>63.52972412109375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>63.84706115722656</c:v>
+                  <c:v>63.84706878662109</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>74.23463439941406</c:v>
@@ -6068,7 +6068,7 @@
                   <c:v>68.18806457519531</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>72.45509338378906</c:v>
+                  <c:v>72.45508575439453</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>55.85855865478516</c:v>
@@ -6086,7 +6086,7 @@
                   <c:v>59.21894836425781</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68.77011108398438</c:v>
+                  <c:v>68.77010345458984</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>68.88735198974609</c:v>
@@ -7591,7 +7591,7 @@
         <v>51.6055</v>
       </c>
       <c r="F35">
-        <v>64.02603912353516</v>
+        <v>64.02604675292969</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>90.173</v>
       </c>
       <c r="F37">
-        <v>59.69252014160156</v>
+        <v>59.69251251220703</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>90.7071</v>
       </c>
       <c r="F40">
-        <v>67.50532531738281</v>
+        <v>67.50531768798828</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.8982</v>
       </c>
       <c r="F44">
-        <v>55.01438903808594</v>
+        <v>55.01438140869141</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>63.4987</v>
       </c>
       <c r="F51">
-        <v>64.33221435546875</v>
+        <v>64.33220672607422</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>68.0436</v>
       </c>
       <c r="F52">
-        <v>72.97991180419922</v>
+        <v>72.97991943359375</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>30.4312</v>
       </c>
       <c r="F60">
-        <v>63.84706115722656</v>
+        <v>63.84706878662109</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>91.9449</v>
       </c>
       <c r="F67">
-        <v>72.45509338378906</v>
+        <v>72.45508575439453</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>68.77011108398438</v>
+        <v>68.77010345458984</v>
       </c>
     </row>
     <row r="74" spans="1:6">
